--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1727715.08796125</v>
+        <v>-1730270.653451641</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12560720.06231649</v>
+        <v>12561851.30939063</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14977772.34287618</v>
+        <v>14977629.73691197</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>84.29521727798797</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.7321536188797</v>
+        <v>219.2998250672941</v>
       </c>
       <c r="I2" t="n">
-        <v>42.04518470759564</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.464536558263</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9711388310543</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9961436311612</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.65963851412519</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>8.915218264396685</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>60.82229543728046</v>
       </c>
       <c r="I4" t="n">
-        <v>96.51626366671985</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.17712508496183</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.8639731922165</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5722280944081</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>191.1688872489244</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>106.021026064681</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>361.3179013702034</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>249.3390639245076</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,7 +953,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>323.6043411114023</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.75769145492382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.9816611348649</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.73684954641046</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>33.82128629322977</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>26.55215089255935</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>268.3939750691791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>142.7059665293332</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>55.49215756129713</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>251.0718348128881</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085811999</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>71.56327578339665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261725</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3907,16 +3907,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>906.6264540355367</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C2" t="n">
-        <v>821.4797699163569</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="D2" t="n">
-        <v>821.4797699163569</v>
+        <v>1156.082344952774</v>
       </c>
       <c r="E2" t="n">
-        <v>821.4797699163569</v>
+        <v>1156.082344952774</v>
       </c>
       <c r="F2" t="n">
-        <v>821.4797699163569</v>
+        <v>745.0964401631668</v>
       </c>
       <c r="G2" t="n">
-        <v>406.3950511722218</v>
+        <v>330.0239900081633</v>
       </c>
       <c r="H2" t="n">
-        <v>108.6858050925453</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.21592154951942</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>254.0744928369595</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>586.3643121319021</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1035.500977900981</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1566.921495383895</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2111.554760801561</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2612.501248106872</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3005.546484356407</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3252.53434141264</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3310.796077475971</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3200.225838528231</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>2994.194385163529</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2740.662926950235</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2409.600039606664</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2056.83138433655</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>1683.36562607547</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y2" t="n">
-        <v>1293.226294099658</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1687.28192383232</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1512.828894551194</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1363.894484889942</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1204.657029884487</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1058.122471911372</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>921.7528074700972</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>831.1875160416876</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>822.1822450675495</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>915.251676209304</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1152.476982636377</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1517.778223703861</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1963.424410055475</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2435.274169813949</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2844.704721461206</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3153.9757689499</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3310.796077475971</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3310.796077475971</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3181.236262460967</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2988.566803508528</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2760.498524782819</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2525.346416551077</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2271.109059822875</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2063.257559617342</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1855.497260852389</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.7070969704486</v>
+        <v>856.7165163051885</v>
       </c>
       <c r="C4" t="n">
-        <v>163.7070969704486</v>
+        <v>687.7803333772816</v>
       </c>
       <c r="D4" t="n">
-        <v>163.7070969704486</v>
+        <v>687.7803333772816</v>
       </c>
       <c r="E4" t="n">
-        <v>163.7070969704486</v>
+        <v>539.8672397948885</v>
       </c>
       <c r="F4" t="n">
-        <v>163.7070969704486</v>
+        <v>392.9772922969781</v>
       </c>
       <c r="G4" t="n">
-        <v>163.7070969704486</v>
+        <v>225.2744556716971</v>
       </c>
       <c r="H4" t="n">
-        <v>163.7070969704486</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.21592154951942</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>110.9572157501788</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>314.3177428179429</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>630.0756374886839</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>973.3871879897964</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1313.970173580891</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1612.537390213391</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1844.49254089413</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1921.651183891643</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1831.573279765419</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1639.79148866217</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1418.001359273879</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1128.898192221338</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V4" t="n">
-        <v>874.2137040154511</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W4" t="n">
-        <v>584.7965339784905</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X4" t="n">
-        <v>356.8069830804732</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.7070969704486</v>
+        <v>1038.364981135428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855437</v>
+        <v>1812.990111906335</v>
       </c>
       <c r="C5" t="n">
-        <v>1204.817842335557</v>
+        <v>1812.990111906335</v>
       </c>
       <c r="D5" t="n">
-        <v>846.5521437288066</v>
+        <v>1454.724413299585</v>
       </c>
       <c r="E5" t="n">
-        <v>846.5521437288066</v>
+        <v>1068.93616070134</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>657.9502559117329</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>1812.990111906335</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.5121164321834</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1277.124594820955</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1049.135043922938</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836216</v>
+        <v>828.3424647794079</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1979.06775675439</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1610.105239813978</v>
       </c>
       <c r="D8" t="n">
         <v>1575.942324366272</v>
@@ -4796,10 +4796,10 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4808,46 +4808,46 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612893</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2719.306689612893</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y8" t="n">
-        <v>2329.167357637081</v>
+        <v>2365.667596818512</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.1586012949293</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="C10" t="n">
-        <v>240.2224183670224</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D10" t="n">
-        <v>240.2224183670224</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>240.2224183670224</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>93.33247086911206</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>93.33247086911206</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>93.33247086911206</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1656.18952276609</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1401.505034560203</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1112.087864523242</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251691</v>
+        <v>884.0983136252247</v>
       </c>
       <c r="Y10" t="n">
-        <v>590.8070661251691</v>
+        <v>663.3057344816946</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>379.6759351444941</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2323.864695427313</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
         <v>484.8112968429803</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1361.415228493873</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.425677595856</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6206,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6309,22 +6309,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6370,13 +6370,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,10 +6461,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6610,7 +6610,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942654</v>
@@ -7795,22 +7795,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5463950602909904</v>
+        <v>4.308775558570233e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>280.9776744930195</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75.30793932002638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.803454668018</v>
+        <v>83.93271947704032</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.41576610317043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22793,7 +22793,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>45.55814437150806</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22850,7 +22850,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>62.63359754465126</v>
       </c>
     </row>
     <row r="6">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>22.81817176293382</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462254</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5341284403475</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>35.11263957635606</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>214.9597225531944</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1101441.11570589</v>
+        <v>1103389.596007193</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1320063.425815945</v>
+        <v>1317888.696099813</v>
       </c>
     </row>
     <row r="4">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102095.2487803889</v>
+        <v>102299.1296912762</v>
       </c>
       <c r="C2" t="n">
-        <v>122612.3012358467</v>
+        <v>122408.4203249594</v>
       </c>
       <c r="D2" t="n">
         <v>123156.2654796425</v>
@@ -26329,7 +26329,7 @@
         <v>121071.9899535009</v>
       </c>
       <c r="H2" t="n">
-        <v>121071.9899535009</v>
+        <v>121071.9899535008</v>
       </c>
       <c r="I2" t="n">
         <v>121071.9899535009</v>
@@ -26341,7 +26341,7 @@
         <v>121071.9899535009</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796424</v>
@@ -26350,7 +26350,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="P2" t="n">
         <v>123156.2654796425</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1324592.616629867</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>3947.344390015486</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>216562.4822237808</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>952.888557018233</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363183</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13043.78970477443</v>
+        <v>12820.12292715302</v>
       </c>
       <c r="C4" t="n">
-        <v>90114.05304721517</v>
+        <v>89338.26297207289</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818175</v>
@@ -26433,25 +26433,25 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.72340992389</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.72340992395</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.72340992389</v>
       </c>
       <c r="O4" t="n">
         <v>20987.7234099239</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107642.9682537726</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1343184.125808026</v>
+        <v>-1347547.298454669</v>
       </c>
       <c r="C6" t="n">
-        <v>-79383.03676277721</v>
+        <v>-74876.24729441818</v>
       </c>
       <c r="D6" t="n">
-        <v>-76961.57399993255</v>
+        <v>-76961.5739999325</v>
       </c>
       <c r="E6" t="n">
-        <v>-318459.8658245918</v>
+        <v>-318494.6037500278</v>
       </c>
       <c r="F6" t="n">
-        <v>6952.595982763378</v>
+        <v>6917.858057327656</v>
       </c>
       <c r="G6" t="n">
-        <v>6952.595982763363</v>
+        <v>6917.858057327656</v>
       </c>
       <c r="H6" t="n">
-        <v>6952.595982763305</v>
+        <v>6917.858057327554</v>
       </c>
       <c r="I6" t="n">
-        <v>6952.595982763392</v>
+        <v>6917.85805732767</v>
       </c>
       <c r="J6" t="n">
-        <v>-209609.8862410174</v>
+        <v>-210613.3443399498</v>
       </c>
       <c r="K6" t="n">
-        <v>5999.707425745117</v>
+        <v>6917.85805732767</v>
       </c>
       <c r="L6" t="n">
-        <v>-20423.29177782865</v>
+        <v>-20423.29177782862</v>
       </c>
       <c r="M6" t="n">
-        <v>-86050.60171970878</v>
+        <v>-86050.60171970881</v>
       </c>
       <c r="N6" t="n">
         <v>-995.573784196793</v>
       </c>
       <c r="O6" t="n">
-        <v>-995.5737841967784</v>
+        <v>-995.5737841967202</v>
       </c>
       <c r="P6" t="n">
-        <v>-995.5737841968512</v>
+        <v>-995.5737841968657</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1086.755407162286</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6990193689928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1086.755407162286</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>3.021293431011827</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6990193689928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>3.702436033299705</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.6990193689928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>3.702436033299705</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.6990193689928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>3.702436033299705</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>259.2518657063266</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>161.5826617289459</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>114.5413372017261</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>356.9969921170701</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>320.8617553274532</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>69.80026951727874</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>17.81786313643374</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.368865958441349</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.74264849688748</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.4307048628103</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>370.8020371402618</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>555.7361331610842</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>689.4398147367339</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>767.1346347251651</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>779.5476751295867</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>736.1047642553355</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>628.2483859063145</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>471.7883737696336</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>274.4357762619417</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.55553302798235</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.12471073307702</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3495092766753079</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.337549366349069</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.57580572237127</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.48141458701839</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>220.8471530724794</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>377.462960617867</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>507.5455323732924</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>592.281696903446</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>607.9576310312871</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>556.1624582295524</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>446.3694048776569</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>298.3861261325584</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.41895423898378</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.42196433190699</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1537861425229651</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.42371783942159</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>58.93421126053843</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.5524065819853</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>227.6841656317052</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3573430939678</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1954669786771</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>299.8910453895538</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>276.9979191894956</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.0195727358533</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.1000664815053</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.11626629220765</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.15262484475577</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.373361333873351</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1068939744749791</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717714</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982898</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33196,7 +33196,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,10 +34126,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34384,13 +34384,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.7561326135755</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>335.6462821161037</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>453.6733997667466</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>536.7884014978924</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>550.1346115329957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>506.0065528336487</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>397.015390151045</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>249.4826838951841</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>58.85023844780955</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.00952640581272</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>239.621521643508</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>368.9911525934182</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>450.1476629814277</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>476.6159189479538</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>413.5662137851079</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>312.3949974633267</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.4043520465369</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19322646531248</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>205.4146738058223</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>318.9473683542839</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>346.7793439405177</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.0232177687824</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>301.5830471035353</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.2981320007468</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.93802322981087</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>302.0934576762715</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37242,10 +37242,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38032,13 +38032,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
